--- a/modules/simplification/data/gpt_generated_medical_dialogue.xlsx
+++ b/modules/simplification/data/gpt_generated_medical_dialogue.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2373" uniqueCount="935">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2375" uniqueCount="935">
   <si>
     <t>category</t>
   </si>
@@ -226,14 +226,14 @@
     <t>30代</t>
   </si>
   <si>
+    <t>-</t>
+  </si>
+  <si>
     <t>最近、すごく喉が渇いて、水をたくさん飲んでしまいます。そのためにトイレに行く回数も増えて、疲れやすくなっています。</t>
   </si>
   <si>
     <t>現病歴:
 - 喉の渇きと頻尿</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
   <si>
     <t>はい、体重が急に減りましたし、時々手足が震える感じもあります。</t>
@@ -5018,7 +5018,9 @@
       <c r="F31" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G31" s="6"/>
+      <c r="G31" s="6" t="s">
+        <v>60</v>
+      </c>
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
@@ -5050,10 +5052,10 @@
         <v>14</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
@@ -5089,7 +5091,7 @@
         <v>47</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
@@ -5161,7 +5163,7 @@
         <v>50</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
@@ -5269,7 +5271,7 @@
         <v>55</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H38" s="3"/>
       <c r="I38" s="3"/>
@@ -6085,7 +6087,7 @@
         <v>101</v>
       </c>
       <c r="G60" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H60" s="3"/>
       <c r="I60" s="3"/>
@@ -6157,7 +6159,7 @@
         <v>104</v>
       </c>
       <c r="G62" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H62" s="3"/>
       <c r="I62" s="3"/>
@@ -6265,7 +6267,7 @@
         <v>109</v>
       </c>
       <c r="G65" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H65" s="3"/>
       <c r="I65" s="3"/>
@@ -6309,7 +6311,7 @@
         <v>12</v>
       </c>
       <c r="G66" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H66" s="3"/>
       <c r="I66" s="3"/>
@@ -6381,7 +6383,7 @@
         <v>114</v>
       </c>
       <c r="G68" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H68" s="3"/>
       <c r="I68" s="3"/>
@@ -6417,7 +6419,7 @@
         <v>115</v>
       </c>
       <c r="G69" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H69" s="3"/>
       <c r="I69" s="3"/>
@@ -6453,7 +6455,7 @@
         <v>116</v>
       </c>
       <c r="G70" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H70" s="3"/>
       <c r="I70" s="3"/>
@@ -6525,7 +6527,7 @@
         <v>119</v>
       </c>
       <c r="G72" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H72" s="3"/>
       <c r="I72" s="3"/>
@@ -6633,7 +6635,7 @@
         <v>42</v>
       </c>
       <c r="G75" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H75" s="3"/>
       <c r="I75" s="3"/>
@@ -6677,7 +6679,7 @@
         <v>12</v>
       </c>
       <c r="G76" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H76" s="3"/>
       <c r="I76" s="3"/>
@@ -6749,7 +6751,7 @@
         <v>128</v>
       </c>
       <c r="G78" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H78" s="3"/>
       <c r="I78" s="3"/>
@@ -6785,7 +6787,7 @@
         <v>129</v>
       </c>
       <c r="G79" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H79" s="3"/>
       <c r="I79" s="3"/>
@@ -6821,7 +6823,7 @@
         <v>130</v>
       </c>
       <c r="G80" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H80" s="3"/>
       <c r="I80" s="3"/>
@@ -6893,7 +6895,7 @@
         <v>133</v>
       </c>
       <c r="G82" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H82" s="3"/>
       <c r="I82" s="3"/>
@@ -6929,7 +6931,7 @@
         <v>134</v>
       </c>
       <c r="G83" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H83" s="3"/>
       <c r="I83" s="3"/>
@@ -7001,7 +7003,7 @@
         <v>42</v>
       </c>
       <c r="G85" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H85" s="3"/>
       <c r="I85" s="3"/>
@@ -7045,7 +7047,7 @@
         <v>12</v>
       </c>
       <c r="G86" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H86" s="3"/>
       <c r="I86" s="3"/>
@@ -7081,7 +7083,7 @@
         <v>140</v>
       </c>
       <c r="G87" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H87" s="3"/>
       <c r="I87" s="3"/>
@@ -7117,7 +7119,7 @@
         <v>141</v>
       </c>
       <c r="G88" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H88" s="3"/>
       <c r="I88" s="3"/>
@@ -7189,7 +7191,7 @@
         <v>144</v>
       </c>
       <c r="G90" s="13" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H90" s="3"/>
       <c r="I90" s="3"/>
@@ -7261,7 +7263,7 @@
         <v>133</v>
       </c>
       <c r="G92" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H92" s="3"/>
       <c r="I92" s="3"/>
@@ -7297,7 +7299,7 @@
         <v>147</v>
       </c>
       <c r="G93" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H93" s="3"/>
       <c r="I93" s="3"/>
@@ -7369,7 +7371,7 @@
         <v>150</v>
       </c>
       <c r="G95" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H95" s="3"/>
       <c r="I95" s="3"/>
@@ -7413,7 +7415,7 @@
         <v>12</v>
       </c>
       <c r="G96" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H96" s="3"/>
       <c r="I96" s="3"/>
@@ -7449,7 +7451,7 @@
         <v>153</v>
       </c>
       <c r="G97" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H97" s="3"/>
       <c r="I97" s="3"/>
@@ -7485,7 +7487,7 @@
         <v>154</v>
       </c>
       <c r="G98" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H98" s="3"/>
       <c r="I98" s="3"/>
@@ -7557,7 +7559,7 @@
         <v>157</v>
       </c>
       <c r="G100" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H100" s="3"/>
       <c r="I100" s="3"/>
@@ -7629,7 +7631,7 @@
         <v>159</v>
       </c>
       <c r="G102" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H102" s="3"/>
       <c r="I102" s="3"/>
@@ -7737,7 +7739,7 @@
         <v>85</v>
       </c>
       <c r="G105" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H105" s="3"/>
       <c r="I105" s="3"/>
@@ -7781,7 +7783,7 @@
         <v>12</v>
       </c>
       <c r="G106" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H106" s="3"/>
       <c r="I106" s="3"/>
@@ -7817,7 +7819,7 @@
         <v>167</v>
       </c>
       <c r="G107" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H107" s="3"/>
       <c r="I107" s="3"/>
@@ -7853,7 +7855,7 @@
         <v>168</v>
       </c>
       <c r="G108" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H108" s="3"/>
       <c r="I108" s="3"/>
@@ -7925,7 +7927,7 @@
         <v>171</v>
       </c>
       <c r="G110" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H110" s="3"/>
       <c r="I110" s="3"/>
@@ -7997,7 +7999,7 @@
         <v>174</v>
       </c>
       <c r="G112" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H112" s="3"/>
       <c r="I112" s="3"/>
@@ -8105,7 +8107,7 @@
         <v>42</v>
       </c>
       <c r="G115" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H115" s="3"/>
       <c r="I115" s="3"/>
@@ -8149,7 +8151,7 @@
         <v>12</v>
       </c>
       <c r="G116" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H116" s="3"/>
       <c r="I116" s="3"/>
@@ -8185,7 +8187,7 @@
         <v>181</v>
       </c>
       <c r="G117" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H117" s="3"/>
       <c r="I117" s="3"/>
@@ -8221,7 +8223,7 @@
         <v>16</v>
       </c>
       <c r="G118" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H118" s="3"/>
       <c r="I118" s="3"/>
@@ -8293,7 +8295,7 @@
         <v>184</v>
       </c>
       <c r="G120" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H120" s="3"/>
       <c r="I120" s="3"/>
@@ -8365,7 +8367,7 @@
         <v>187</v>
       </c>
       <c r="G122" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H122" s="3"/>
       <c r="I122" s="3"/>
@@ -8401,7 +8403,7 @@
         <v>188</v>
       </c>
       <c r="G123" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H123" s="3"/>
       <c r="I123" s="3"/>
@@ -8473,7 +8475,7 @@
         <v>85</v>
       </c>
       <c r="G125" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H125" s="3"/>
       <c r="I125" s="3"/>
@@ -8517,7 +8519,7 @@
         <v>193</v>
       </c>
       <c r="G126" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H126" s="3"/>
       <c r="I126" s="3"/>
@@ -8589,7 +8591,7 @@
         <v>196</v>
       </c>
       <c r="G128" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H128" s="3"/>
       <c r="I128" s="3"/>
@@ -8661,7 +8663,7 @@
         <v>199</v>
       </c>
       <c r="G130" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H130" s="3"/>
       <c r="I130" s="3"/>
@@ -8697,7 +8699,7 @@
         <v>200</v>
       </c>
       <c r="G131" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H131" s="3"/>
       <c r="I131" s="3"/>
@@ -8733,7 +8735,7 @@
         <v>201</v>
       </c>
       <c r="G132" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H132" s="3"/>
       <c r="I132" s="3"/>
@@ -8841,7 +8843,7 @@
         <v>206</v>
       </c>
       <c r="G135" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H135" s="3"/>
       <c r="I135" s="3"/>
@@ -8913,7 +8915,7 @@
         <v>209</v>
       </c>
       <c r="G137" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H137" s="3"/>
       <c r="I137" s="3"/>
@@ -8993,7 +8995,7 @@
         <v>214</v>
       </c>
       <c r="G139" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H139" s="3"/>
       <c r="I139" s="3"/>
@@ -9065,7 +9067,7 @@
         <v>217</v>
       </c>
       <c r="G141" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H141" s="3"/>
       <c r="I141" s="3"/>
@@ -9317,7 +9319,7 @@
         <v>230</v>
       </c>
       <c r="G148" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H148" s="3"/>
       <c r="I148" s="3"/>
@@ -9389,7 +9391,7 @@
         <v>209</v>
       </c>
       <c r="G150" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H150" s="3"/>
       <c r="I150" s="3"/>
@@ -9469,7 +9471,7 @@
         <v>214</v>
       </c>
       <c r="G152" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H152" s="3"/>
       <c r="I152" s="3"/>
@@ -9541,7 +9543,7 @@
         <v>239</v>
       </c>
       <c r="G154" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H154" s="3"/>
       <c r="I154" s="3"/>
@@ -9613,7 +9615,7 @@
         <v>242</v>
       </c>
       <c r="G156" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H156" s="3"/>
       <c r="I156" s="3"/>
@@ -9721,7 +9723,7 @@
         <v>247</v>
       </c>
       <c r="G159" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H159" s="3"/>
       <c r="I159" s="3"/>
@@ -9757,7 +9759,7 @@
         <v>248</v>
       </c>
       <c r="G160" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H160" s="3"/>
       <c r="I160" s="3"/>
@@ -9865,7 +9867,7 @@
         <v>253</v>
       </c>
       <c r="G163" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H163" s="3"/>
       <c r="I163" s="3"/>
@@ -9901,7 +9903,7 @@
         <v>254</v>
       </c>
       <c r="G164" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H164" s="3"/>
       <c r="I164" s="3"/>
@@ -9937,7 +9939,7 @@
         <v>255</v>
       </c>
       <c r="G165" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H165" s="3"/>
       <c r="I165" s="3"/>
@@ -9973,7 +9975,7 @@
         <v>256</v>
       </c>
       <c r="G166" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H166" s="3"/>
       <c r="I166" s="3"/>
@@ -10009,7 +10011,7 @@
         <v>257</v>
       </c>
       <c r="G167" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H167" s="3"/>
       <c r="I167" s="3"/>
@@ -10089,7 +10091,7 @@
         <v>214</v>
       </c>
       <c r="G169" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H169" s="3"/>
       <c r="I169" s="3"/>
@@ -10161,7 +10163,7 @@
         <v>263</v>
       </c>
       <c r="G171" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H171" s="3"/>
       <c r="I171" s="3"/>
@@ -10197,7 +10199,7 @@
         <v>264</v>
       </c>
       <c r="G172" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H172" s="3"/>
       <c r="I172" s="3"/>
@@ -10233,7 +10235,7 @@
         <v>265</v>
       </c>
       <c r="G173" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H173" s="3"/>
       <c r="I173" s="3"/>
@@ -10305,7 +10307,7 @@
         <v>268</v>
       </c>
       <c r="G175" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H175" s="3"/>
       <c r="I175" s="3"/>
@@ -10413,7 +10415,7 @@
         <v>247</v>
       </c>
       <c r="G178" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H178" s="3"/>
       <c r="I178" s="3"/>
@@ -10485,7 +10487,7 @@
         <v>275</v>
       </c>
       <c r="G180" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H180" s="3"/>
       <c r="I180" s="3"/>
@@ -10521,7 +10523,7 @@
         <v>276</v>
       </c>
       <c r="G181" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H181" s="3"/>
       <c r="I181" s="3"/>
@@ -10557,7 +10559,7 @@
         <v>209</v>
       </c>
       <c r="G182" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H182" s="3"/>
       <c r="I182" s="3"/>
@@ -10637,7 +10639,7 @@
         <v>280</v>
       </c>
       <c r="G184" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H184" s="3"/>
       <c r="I184" s="3"/>
@@ -10709,7 +10711,7 @@
         <v>283</v>
       </c>
       <c r="G186" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H186" s="3"/>
       <c r="I186" s="3"/>
@@ -10781,7 +10783,7 @@
         <v>286</v>
       </c>
       <c r="G188" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H188" s="3"/>
       <c r="I188" s="3"/>
@@ -10853,7 +10855,7 @@
         <v>289</v>
       </c>
       <c r="G190" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H190" s="3"/>
       <c r="I190" s="3"/>
@@ -10961,7 +10963,7 @@
         <v>247</v>
       </c>
       <c r="G193" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H193" s="3"/>
       <c r="I193" s="3"/>
@@ -11033,7 +11035,7 @@
         <v>296</v>
       </c>
       <c r="G195" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H195" s="3"/>
       <c r="I195" s="3"/>
@@ -11105,7 +11107,7 @@
         <v>209</v>
       </c>
       <c r="G197" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H197" s="3"/>
       <c r="I197" s="3"/>
@@ -11185,7 +11187,7 @@
         <v>301</v>
       </c>
       <c r="G199" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H199" s="3"/>
       <c r="I199" s="3"/>
@@ -11257,7 +11259,7 @@
         <v>304</v>
       </c>
       <c r="G201" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H201" s="3"/>
       <c r="I201" s="3"/>
@@ -11329,7 +11331,7 @@
         <v>307</v>
       </c>
       <c r="G203" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H203" s="3"/>
       <c r="I203" s="3"/>
@@ -11437,7 +11439,7 @@
         <v>247</v>
       </c>
       <c r="G206" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H206" s="3"/>
       <c r="I206" s="3"/>
@@ -11473,7 +11475,7 @@
         <v>312</v>
       </c>
       <c r="G207" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H207" s="3"/>
       <c r="I207" s="3"/>
@@ -11509,7 +11511,7 @@
         <v>313</v>
       </c>
       <c r="G208" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H208" s="3"/>
       <c r="I208" s="3"/>
@@ -11581,7 +11583,7 @@
         <v>316</v>
       </c>
       <c r="G210" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H210" s="3"/>
       <c r="I210" s="3"/>
@@ -11653,7 +11655,7 @@
         <v>209</v>
       </c>
       <c r="G212" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H212" s="3"/>
       <c r="I212" s="3"/>
@@ -11733,7 +11735,7 @@
         <v>301</v>
       </c>
       <c r="G214" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H214" s="3"/>
       <c r="I214" s="3"/>
@@ -11805,7 +11807,7 @@
         <v>324</v>
       </c>
       <c r="G216" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H216" s="3"/>
       <c r="I216" s="3"/>
@@ -11877,7 +11879,7 @@
         <v>327</v>
       </c>
       <c r="G218" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H218" s="3"/>
       <c r="I218" s="3"/>
@@ -11985,7 +11987,7 @@
         <v>247</v>
       </c>
       <c r="G221" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H221" s="3"/>
       <c r="I221" s="3"/>
@@ -12057,7 +12059,7 @@
         <v>334</v>
       </c>
       <c r="G223" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H223" s="3"/>
       <c r="I223" s="3"/>
@@ -12093,7 +12095,7 @@
         <v>335</v>
       </c>
       <c r="G224" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H224" s="3"/>
       <c r="I224" s="3"/>
@@ -12129,7 +12131,7 @@
         <v>209</v>
       </c>
       <c r="G225" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H225" s="3"/>
       <c r="I225" s="3"/>
@@ -12209,7 +12211,7 @@
         <v>301</v>
       </c>
       <c r="G227" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H227" s="3"/>
       <c r="I227" s="3"/>
@@ -12281,7 +12283,7 @@
         <v>340</v>
       </c>
       <c r="G229" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H229" s="3"/>
       <c r="I229" s="3"/>
@@ -12353,7 +12355,7 @@
         <v>343</v>
       </c>
       <c r="G231" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H231" s="15"/>
       <c r="I231" s="15"/>
@@ -12425,7 +12427,7 @@
         <v>346</v>
       </c>
       <c r="G233" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H233" s="15"/>
       <c r="I233" s="15"/>
@@ -12533,7 +12535,7 @@
         <v>351</v>
       </c>
       <c r="G236" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H236" s="15"/>
       <c r="I236" s="15"/>
@@ -12605,7 +12607,7 @@
         <v>209</v>
       </c>
       <c r="G238" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H238" s="15"/>
       <c r="I238" s="15"/>
@@ -12685,7 +12687,7 @@
         <v>301</v>
       </c>
       <c r="G240" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H240" s="15"/>
       <c r="I240" s="15"/>
@@ -12757,7 +12759,7 @@
         <v>358</v>
       </c>
       <c r="G242" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H242" s="15"/>
       <c r="I242" s="15"/>
@@ -12829,7 +12831,7 @@
         <v>361</v>
       </c>
       <c r="G244" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H244" s="15"/>
       <c r="I244" s="15"/>
@@ -12937,7 +12939,7 @@
         <v>247</v>
       </c>
       <c r="G247" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H247" s="15"/>
       <c r="I247" s="15"/>
@@ -13009,7 +13011,7 @@
         <v>368</v>
       </c>
       <c r="G249" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H249" s="15"/>
       <c r="I249" s="15"/>
@@ -13045,7 +13047,7 @@
         <v>369</v>
       </c>
       <c r="G250" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H250" s="15"/>
       <c r="I250" s="15"/>
@@ -13081,7 +13083,7 @@
         <v>209</v>
       </c>
       <c r="G251" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H251" s="15"/>
       <c r="I251" s="15"/>
@@ -13161,7 +13163,7 @@
         <v>301</v>
       </c>
       <c r="G253" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H253" s="15"/>
       <c r="I253" s="15"/>
@@ -13233,7 +13235,7 @@
         <v>374</v>
       </c>
       <c r="G255" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H255" s="15"/>
       <c r="I255" s="15"/>
@@ -13413,7 +13415,7 @@
         <v>247</v>
       </c>
       <c r="G260" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H260" s="15"/>
       <c r="I260" s="15"/>
@@ -13485,7 +13487,7 @@
         <v>209</v>
       </c>
       <c r="G262" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H262" s="15"/>
       <c r="I262" s="15"/>
@@ -13565,7 +13567,7 @@
         <v>301</v>
       </c>
       <c r="G264" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H264" s="15"/>
       <c r="I264" s="15"/>
@@ -13637,7 +13639,7 @@
         <v>374</v>
       </c>
       <c r="G266" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H266" s="15"/>
       <c r="I266" s="15"/>
@@ -13709,7 +13711,7 @@
         <v>391</v>
       </c>
       <c r="G268" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H268" s="15"/>
       <c r="I268" s="15"/>
@@ -13817,7 +13819,7 @@
         <v>247</v>
       </c>
       <c r="G271" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H271" s="15"/>
       <c r="I271" s="15"/>
@@ -13889,7 +13891,7 @@
         <v>398</v>
       </c>
       <c r="G273" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H273" s="15"/>
       <c r="I273" s="15"/>
@@ -13961,7 +13963,7 @@
         <v>209</v>
       </c>
       <c r="G275" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H275" s="15"/>
       <c r="I275" s="15"/>
@@ -14041,7 +14043,7 @@
         <v>301</v>
       </c>
       <c r="G277" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H277" s="15"/>
       <c r="I277" s="15"/>
@@ -14113,7 +14115,7 @@
         <v>374</v>
       </c>
       <c r="G279" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H279" s="15"/>
       <c r="I279" s="15"/>
@@ -14185,7 +14187,7 @@
         <v>407</v>
       </c>
       <c r="G281" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H281" s="15"/>
       <c r="I281" s="15"/>
@@ -14293,7 +14295,7 @@
         <v>247</v>
       </c>
       <c r="G284" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H284" s="15"/>
       <c r="I284" s="15"/>
@@ -14329,7 +14331,7 @@
         <v>412</v>
       </c>
       <c r="G285" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H285" s="15"/>
       <c r="I285" s="15"/>
@@ -14365,7 +14367,7 @@
         <v>413</v>
       </c>
       <c r="G286" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H286" s="15"/>
       <c r="I286" s="15"/>
@@ -14437,7 +14439,7 @@
         <v>209</v>
       </c>
       <c r="G288" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H288" s="15"/>
       <c r="I288" s="15"/>
@@ -14517,7 +14519,7 @@
         <v>301</v>
       </c>
       <c r="G290" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H290" s="15"/>
       <c r="I290" s="15"/>
@@ -14589,7 +14591,7 @@
         <v>421</v>
       </c>
       <c r="G292" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H292" s="15"/>
       <c r="I292" s="15"/>
@@ -14661,7 +14663,7 @@
         <v>424</v>
       </c>
       <c r="G294" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H294" s="15"/>
       <c r="I294" s="15"/>
@@ -14769,7 +14771,7 @@
         <v>247</v>
       </c>
       <c r="G297" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H297" s="15"/>
       <c r="I297" s="15"/>
@@ -14805,7 +14807,7 @@
         <v>429</v>
       </c>
       <c r="G298" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H298" s="15"/>
       <c r="I298" s="15"/>
@@ -14841,7 +14843,7 @@
         <v>430</v>
       </c>
       <c r="G299" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H299" s="15"/>
       <c r="I299" s="15"/>
@@ -14913,7 +14915,7 @@
         <v>433</v>
       </c>
       <c r="G301" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H301" s="15"/>
       <c r="I301" s="15"/>
@@ -14993,7 +14995,7 @@
         <v>301</v>
       </c>
       <c r="G303" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H303" s="15"/>
       <c r="I303" s="15"/>
@@ -15065,7 +15067,7 @@
         <v>421</v>
       </c>
       <c r="G305" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H305" s="15"/>
       <c r="I305" s="15"/>
@@ -15137,7 +15139,7 @@
         <v>391</v>
       </c>
       <c r="G307" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H307" s="15"/>
       <c r="I307" s="15"/>
@@ -15173,7 +15175,7 @@
         <v>440</v>
       </c>
       <c r="G308" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H308" s="15"/>
       <c r="I308" s="15"/>
@@ -15245,7 +15247,7 @@
         <v>247</v>
       </c>
       <c r="G310" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H310" s="15"/>
       <c r="I310" s="15"/>
@@ -15317,7 +15319,7 @@
         <v>445</v>
       </c>
       <c r="G312" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H312" s="15"/>
       <c r="I312" s="15"/>
@@ -15353,7 +15355,7 @@
         <v>446</v>
       </c>
       <c r="G313" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H313" s="15"/>
       <c r="I313" s="15"/>
@@ -15389,7 +15391,7 @@
         <v>209</v>
       </c>
       <c r="G314" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H314" s="15"/>
       <c r="I314" s="15"/>
@@ -15469,7 +15471,7 @@
         <v>301</v>
       </c>
       <c r="G316" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H316" s="15"/>
       <c r="I316" s="15"/>
@@ -15541,7 +15543,7 @@
         <v>450</v>
       </c>
       <c r="G318" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H318" s="15"/>
       <c r="I318" s="15"/>
@@ -15613,7 +15615,7 @@
         <v>453</v>
       </c>
       <c r="G320" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H320" s="15"/>
       <c r="I320" s="15"/>
@@ -15793,7 +15795,7 @@
         <v>462</v>
       </c>
       <c r="G325" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H325" s="15"/>
       <c r="I325" s="15"/>
@@ -15829,7 +15831,7 @@
         <v>463</v>
       </c>
       <c r="G326" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H326" s="15"/>
       <c r="I326" s="15"/>
@@ -15865,7 +15867,7 @@
         <v>464</v>
       </c>
       <c r="G327" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H327" s="15"/>
       <c r="I327" s="15"/>
@@ -15937,7 +15939,7 @@
         <v>467</v>
       </c>
       <c r="G329" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H329" s="15"/>
       <c r="I329" s="15"/>
@@ -16017,7 +16019,7 @@
         <v>301</v>
       </c>
       <c r="G331" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H331" s="15"/>
       <c r="I331" s="15"/>
@@ -16089,7 +16091,7 @@
         <v>471</v>
       </c>
       <c r="G333" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H333" s="15"/>
       <c r="I333" s="15"/>
@@ -16161,7 +16163,7 @@
         <v>474</v>
       </c>
       <c r="G335" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H335" s="15"/>
       <c r="I335" s="15"/>
@@ -16233,7 +16235,7 @@
         <v>477</v>
       </c>
       <c r="G337" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H337" s="15"/>
       <c r="I337" s="15"/>
@@ -16341,7 +16343,7 @@
         <v>247</v>
       </c>
       <c r="G340" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H340" s="15"/>
       <c r="I340" s="15"/>
@@ -16413,7 +16415,7 @@
         <v>484</v>
       </c>
       <c r="G342" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H342" s="15"/>
       <c r="I342" s="15"/>
@@ -16485,7 +16487,7 @@
         <v>209</v>
       </c>
       <c r="G344" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H344" s="15"/>
       <c r="I344" s="15"/>
@@ -16565,7 +16567,7 @@
         <v>301</v>
       </c>
       <c r="G346" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H346" s="15"/>
       <c r="I346" s="15"/>
@@ -16637,7 +16639,7 @@
         <v>421</v>
       </c>
       <c r="G348" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H348" s="15"/>
       <c r="I348" s="15"/>
@@ -16709,7 +16711,7 @@
         <v>492</v>
       </c>
       <c r="G350" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H350" s="15"/>
       <c r="I350" s="15"/>
@@ -16817,7 +16819,7 @@
         <v>55</v>
       </c>
       <c r="G353" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H353" s="15"/>
       <c r="I353" s="15"/>
@@ -16889,7 +16891,7 @@
         <v>499</v>
       </c>
       <c r="G355" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H355" s="15"/>
       <c r="I355" s="15"/>
@@ -16961,7 +16963,7 @@
         <v>209</v>
       </c>
       <c r="G357" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H357" s="15"/>
       <c r="I357" s="15"/>
@@ -17041,7 +17043,7 @@
         <v>301</v>
       </c>
       <c r="G359" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H359" s="15"/>
       <c r="I359" s="15"/>
@@ -17113,7 +17115,7 @@
         <v>507</v>
       </c>
       <c r="G361" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H361" s="15"/>
       <c r="I361" s="15"/>
@@ -17185,7 +17187,7 @@
         <v>510</v>
       </c>
       <c r="G363" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H363" s="15"/>
       <c r="I363" s="15"/>
@@ -17257,7 +17259,7 @@
         <v>513</v>
       </c>
       <c r="G365" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H365" s="15"/>
       <c r="I365" s="15"/>
@@ -17293,7 +17295,7 @@
         <v>514</v>
       </c>
       <c r="G366" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H366" s="15"/>
       <c r="I366" s="15"/>
@@ -17365,7 +17367,7 @@
         <v>517</v>
       </c>
       <c r="G368" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H368" s="15"/>
       <c r="I368" s="15"/>
@@ -17437,7 +17439,7 @@
         <v>520</v>
       </c>
       <c r="G370" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H370" s="15"/>
       <c r="I370" s="15"/>
@@ -17517,7 +17519,7 @@
         <v>301</v>
       </c>
       <c r="G372" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H372" s="15"/>
       <c r="I372" s="15"/>
@@ -17589,7 +17591,7 @@
         <v>525</v>
       </c>
       <c r="G374" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H374" s="15"/>
       <c r="I374" s="15"/>
@@ -17661,7 +17663,7 @@
         <v>528</v>
       </c>
       <c r="G376" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H376" s="15"/>
       <c r="I376" s="15"/>
@@ -17733,7 +17735,7 @@
         <v>531</v>
       </c>
       <c r="G378" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H378" s="15"/>
       <c r="I378" s="15"/>
@@ -17841,7 +17843,7 @@
         <v>247</v>
       </c>
       <c r="G381" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H381" s="15"/>
       <c r="I381" s="15"/>
@@ -17913,7 +17915,7 @@
         <v>538</v>
       </c>
       <c r="G383" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H383" s="15"/>
       <c r="I383" s="15"/>
@@ -17949,7 +17951,7 @@
         <v>539</v>
       </c>
       <c r="G384" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H384" s="15"/>
       <c r="I384" s="15"/>
@@ -17985,7 +17987,7 @@
         <v>209</v>
       </c>
       <c r="G385" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H385" s="15"/>
       <c r="I385" s="15"/>
@@ -18065,7 +18067,7 @@
         <v>301</v>
       </c>
       <c r="G387" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H387" s="15"/>
       <c r="I387" s="15"/>
@@ -18137,7 +18139,7 @@
         <v>374</v>
       </c>
       <c r="G389" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H389" s="15"/>
       <c r="I389" s="15"/>
@@ -18209,7 +18211,7 @@
         <v>545</v>
       </c>
       <c r="G391" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H391" s="15"/>
       <c r="I391" s="15"/>
@@ -18317,7 +18319,7 @@
         <v>247</v>
       </c>
       <c r="G394" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H394" s="15"/>
       <c r="I394" s="15"/>
@@ -18389,7 +18391,7 @@
         <v>552</v>
       </c>
       <c r="G396" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H396" s="15"/>
       <c r="I396" s="15"/>
@@ -18461,7 +18463,7 @@
         <v>209</v>
       </c>
       <c r="G398" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H398" s="15"/>
       <c r="I398" s="15"/>
@@ -18541,7 +18543,7 @@
         <v>301</v>
       </c>
       <c r="G400" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H400" s="15"/>
       <c r="I400" s="15"/>
@@ -18613,7 +18615,7 @@
         <v>559</v>
       </c>
       <c r="G402" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H402" s="15"/>
       <c r="I402" s="15"/>
@@ -18685,7 +18687,7 @@
         <v>453</v>
       </c>
       <c r="G404" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H404" s="15"/>
       <c r="I404" s="15"/>
@@ -18757,7 +18759,7 @@
         <v>564</v>
       </c>
       <c r="G406" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H406" s="15"/>
       <c r="I406" s="15"/>
@@ -18865,7 +18867,7 @@
         <v>247</v>
       </c>
       <c r="G409" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H409" s="15"/>
       <c r="I409" s="15"/>
@@ -18937,7 +18939,7 @@
         <v>571</v>
       </c>
       <c r="G411" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H411" s="15"/>
       <c r="I411" s="15"/>
@@ -18973,7 +18975,7 @@
         <v>572</v>
       </c>
       <c r="G412" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H412" s="15"/>
       <c r="I412" s="15"/>
@@ -19009,7 +19011,7 @@
         <v>209</v>
       </c>
       <c r="G413" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H413" s="15"/>
       <c r="I413" s="15"/>
@@ -19089,7 +19091,7 @@
         <v>301</v>
       </c>
       <c r="G415" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H415" s="15"/>
       <c r="I415" s="15"/>
@@ -19161,7 +19163,7 @@
         <v>374</v>
       </c>
       <c r="G417" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H417" s="15"/>
       <c r="I417" s="15"/>
@@ -19233,7 +19235,7 @@
         <v>578</v>
       </c>
       <c r="G419" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H419" s="15"/>
       <c r="I419" s="15"/>
@@ -19341,7 +19343,7 @@
         <v>247</v>
       </c>
       <c r="G422" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H422" s="15"/>
       <c r="I422" s="15"/>
@@ -19413,7 +19415,7 @@
         <v>585</v>
       </c>
       <c r="G424" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H424" s="15"/>
       <c r="I424" s="15"/>
@@ -19485,7 +19487,7 @@
         <v>209</v>
       </c>
       <c r="G426" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H426" s="15"/>
       <c r="I426" s="15"/>
@@ -19565,7 +19567,7 @@
         <v>301</v>
       </c>
       <c r="G428" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H428" s="15"/>
       <c r="I428" s="15"/>
@@ -19637,7 +19639,7 @@
         <v>591</v>
       </c>
       <c r="G430" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H430" s="15"/>
       <c r="I430" s="15"/>
@@ -19745,7 +19747,7 @@
         <v>596</v>
       </c>
       <c r="G433" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H433" s="15"/>
       <c r="I433" s="15"/>
@@ -19781,7 +19783,7 @@
         <v>597</v>
       </c>
       <c r="G434" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H434" s="15"/>
       <c r="I434" s="15"/>
@@ -19817,7 +19819,7 @@
         <v>598</v>
       </c>
       <c r="G435" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H435" s="15"/>
       <c r="I435" s="15"/>
@@ -19889,7 +19891,7 @@
         <v>601</v>
       </c>
       <c r="G437" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H437" s="15"/>
       <c r="I437" s="15"/>
@@ -19925,7 +19927,7 @@
         <v>602</v>
       </c>
       <c r="G438" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H438" s="15"/>
       <c r="I438" s="15"/>
@@ -19961,7 +19963,7 @@
         <v>603</v>
       </c>
       <c r="G439" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H439" s="15"/>
       <c r="I439" s="15"/>
@@ -20041,7 +20043,7 @@
         <v>301</v>
       </c>
       <c r="G441" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H441" s="15"/>
       <c r="I441" s="15"/>
@@ -20113,7 +20115,7 @@
         <v>609</v>
       </c>
       <c r="G443" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H443" s="15"/>
       <c r="I443" s="15"/>
@@ -20185,7 +20187,7 @@
         <v>612</v>
       </c>
       <c r="G445" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H445" s="15"/>
       <c r="I445" s="15"/>
@@ -20293,7 +20295,7 @@
         <v>247</v>
       </c>
       <c r="G448" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H448" s="15"/>
       <c r="I448" s="15"/>
@@ -20365,7 +20367,7 @@
         <v>619</v>
       </c>
       <c r="G450" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H450" s="15"/>
       <c r="I450" s="15"/>
@@ -20401,7 +20403,7 @@
         <v>620</v>
       </c>
       <c r="G451" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H451" s="15"/>
       <c r="I451" s="15"/>
@@ -20437,7 +20439,7 @@
         <v>621</v>
       </c>
       <c r="G452" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H452" s="15"/>
       <c r="I452" s="15"/>
@@ -20517,7 +20519,7 @@
         <v>301</v>
       </c>
       <c r="G454" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H454" s="15"/>
       <c r="I454" s="15"/>
@@ -20589,7 +20591,7 @@
         <v>626</v>
       </c>
       <c r="G456" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H456" s="15"/>
       <c r="I456" s="15"/>
@@ -20661,7 +20663,7 @@
         <v>629</v>
       </c>
       <c r="G458" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H458" s="15"/>
       <c r="I458" s="15"/>
@@ -20769,7 +20771,7 @@
         <v>247</v>
       </c>
       <c r="G461" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H461" s="15"/>
       <c r="I461" s="15"/>
@@ -20841,7 +20843,7 @@
         <v>636</v>
       </c>
       <c r="G463" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H463" s="15"/>
       <c r="I463" s="15"/>
@@ -20913,7 +20915,7 @@
         <v>209</v>
       </c>
       <c r="G465" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H465" s="15"/>
       <c r="I465" s="15"/>
@@ -20993,7 +20995,7 @@
         <v>301</v>
       </c>
       <c r="G467" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H467" s="15"/>
       <c r="I467" s="15"/>
@@ -21065,7 +21067,7 @@
         <v>421</v>
       </c>
       <c r="G469" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H469" s="15"/>
       <c r="I469" s="15"/>
@@ -21137,7 +21139,7 @@
         <v>307</v>
       </c>
       <c r="G471" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H471" s="15"/>
       <c r="I471" s="15"/>
@@ -21245,7 +21247,7 @@
         <v>247</v>
       </c>
       <c r="G474" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H474" s="15"/>
       <c r="I474" s="15"/>
@@ -21317,7 +21319,7 @@
         <v>650</v>
       </c>
       <c r="G476" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H476" s="15"/>
       <c r="I476" s="15"/>
@@ -21389,7 +21391,7 @@
         <v>653</v>
       </c>
       <c r="G478" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H478" s="15"/>
       <c r="I478" s="15"/>
@@ -21469,7 +21471,7 @@
         <v>301</v>
       </c>
       <c r="G480" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H480" s="15"/>
       <c r="I480" s="15"/>
@@ -21541,7 +21543,7 @@
         <v>658</v>
       </c>
       <c r="G482" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H482" s="15"/>
       <c r="I482" s="15"/>
@@ -21613,7 +21615,7 @@
         <v>453</v>
       </c>
       <c r="G484" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H484" s="15"/>
       <c r="I484" s="15"/>
@@ -21721,7 +21723,7 @@
         <v>247</v>
       </c>
       <c r="G487" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H487" s="15"/>
       <c r="I487" s="15"/>
@@ -21793,7 +21795,7 @@
         <v>667</v>
       </c>
       <c r="G489" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H489" s="15"/>
       <c r="I489" s="15"/>
@@ -21865,7 +21867,7 @@
         <v>670</v>
       </c>
       <c r="G491" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H491" s="15"/>
       <c r="I491" s="15"/>
@@ -21901,7 +21903,7 @@
         <v>671</v>
       </c>
       <c r="G492" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H492" s="15"/>
       <c r="I492" s="15"/>
@@ -21937,7 +21939,7 @@
         <v>209</v>
       </c>
       <c r="G493" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H493" s="15"/>
       <c r="I493" s="15"/>
@@ -22017,7 +22019,7 @@
         <v>301</v>
       </c>
       <c r="G495" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H495" s="15"/>
       <c r="I495" s="15"/>
@@ -22089,7 +22091,7 @@
         <v>374</v>
       </c>
       <c r="G497" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H497" s="15"/>
       <c r="I497" s="15"/>
@@ -22161,7 +22163,7 @@
         <v>677</v>
       </c>
       <c r="G499" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H499" s="15"/>
       <c r="I499" s="15"/>
@@ -22197,7 +22199,7 @@
         <v>55</v>
       </c>
       <c r="G500" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H500" s="15"/>
       <c r="I500" s="15"/>
@@ -22269,7 +22271,7 @@
         <v>680</v>
       </c>
       <c r="G502" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H502" s="15"/>
       <c r="I502" s="15"/>
@@ -22341,7 +22343,7 @@
         <v>683</v>
       </c>
       <c r="G504" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H504" s="15"/>
       <c r="I504" s="15"/>
@@ -22413,7 +22415,7 @@
         <v>686</v>
       </c>
       <c r="G506" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H506" s="15"/>
       <c r="I506" s="15"/>
@@ -22449,7 +22451,7 @@
         <v>687</v>
       </c>
       <c r="G507" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H507" s="15"/>
       <c r="I507" s="15"/>
@@ -22493,7 +22495,7 @@
         <v>301</v>
       </c>
       <c r="G508" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H508" s="15"/>
       <c r="I508" s="15"/>
@@ -22565,7 +22567,7 @@
         <v>691</v>
       </c>
       <c r="G510" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H510" s="15"/>
       <c r="I510" s="15"/>
@@ -22637,7 +22639,7 @@
         <v>694</v>
       </c>
       <c r="G512" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H512" s="15"/>
       <c r="I512" s="15"/>
@@ -22745,7 +22747,7 @@
         <v>247</v>
       </c>
       <c r="G515" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H515" s="15"/>
       <c r="I515" s="15"/>
@@ -22817,7 +22819,7 @@
         <v>701</v>
       </c>
       <c r="G517" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H517" s="15"/>
       <c r="I517" s="15"/>
@@ -22889,7 +22891,7 @@
         <v>621</v>
       </c>
       <c r="G519" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H519" s="15"/>
       <c r="I519" s="15"/>
@@ -22969,7 +22971,7 @@
         <v>301</v>
       </c>
       <c r="G521" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H521" s="15"/>
       <c r="I521" s="15"/>
@@ -23041,7 +23043,7 @@
         <v>707</v>
       </c>
       <c r="G523" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H523" s="15"/>
       <c r="I523" s="15"/>
@@ -23113,7 +23115,7 @@
         <v>453</v>
       </c>
       <c r="G525" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H525" s="15"/>
       <c r="I525" s="15"/>
@@ -23221,7 +23223,7 @@
         <v>55</v>
       </c>
       <c r="G528" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H528" s="15"/>
       <c r="I528" s="15"/>
@@ -23293,7 +23295,7 @@
         <v>716</v>
       </c>
       <c r="G530" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H530" s="15"/>
       <c r="I530" s="15"/>
@@ -23329,7 +23331,7 @@
         <v>717</v>
       </c>
       <c r="G531" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H531" s="15"/>
       <c r="I531" s="15"/>
@@ -23365,7 +23367,7 @@
         <v>718</v>
       </c>
       <c r="G532" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H532" s="15"/>
       <c r="I532" s="15"/>
@@ -23445,7 +23447,7 @@
         <v>301</v>
       </c>
       <c r="G534" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H534" s="15"/>
       <c r="I534" s="15"/>
@@ -23517,7 +23519,7 @@
         <v>723</v>
       </c>
       <c r="G536" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H536" s="15"/>
       <c r="I536" s="15"/>
@@ -23625,7 +23627,7 @@
         <v>247</v>
       </c>
       <c r="G539" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H539" s="15"/>
       <c r="I539" s="15"/>
@@ -23697,7 +23699,7 @@
         <v>730</v>
       </c>
       <c r="G541" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H541" s="15"/>
       <c r="I541" s="15"/>
@@ -23733,7 +23735,7 @@
         <v>731</v>
       </c>
       <c r="G542" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H542" s="15"/>
       <c r="I542" s="15"/>
@@ -23769,7 +23771,7 @@
         <v>718</v>
       </c>
       <c r="G543" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H543" s="15"/>
       <c r="I543" s="15"/>
@@ -23849,7 +23851,7 @@
         <v>301</v>
       </c>
       <c r="G545" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H545" s="15"/>
       <c r="I545" s="15"/>
@@ -23921,7 +23923,7 @@
         <v>735</v>
       </c>
       <c r="G547" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H547" s="15"/>
       <c r="I547" s="15"/>
@@ -23993,7 +23995,7 @@
         <v>612</v>
       </c>
       <c r="G549" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H549" s="15"/>
       <c r="I549" s="15"/>
@@ -24101,7 +24103,7 @@
         <v>742</v>
       </c>
       <c r="G552" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H552" s="15"/>
       <c r="I552" s="15"/>
@@ -24173,7 +24175,7 @@
         <v>745</v>
       </c>
       <c r="G554" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H554" s="15"/>
       <c r="I554" s="15"/>
@@ -24245,7 +24247,7 @@
         <v>621</v>
       </c>
       <c r="G556" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H556" s="15"/>
       <c r="I556" s="15"/>
@@ -24325,7 +24327,7 @@
         <v>301</v>
       </c>
       <c r="G558" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H558" s="15"/>
       <c r="I558" s="15"/>
@@ -24397,7 +24399,7 @@
         <v>752</v>
       </c>
       <c r="G560" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H560" s="15"/>
       <c r="I560" s="15"/>
@@ -24469,7 +24471,7 @@
         <v>755</v>
       </c>
       <c r="G562" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H562" s="15"/>
       <c r="I562" s="15"/>
@@ -24577,7 +24579,7 @@
         <v>55</v>
       </c>
       <c r="G565" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H565" s="15"/>
       <c r="I565" s="15"/>
@@ -24613,7 +24615,7 @@
         <v>760</v>
       </c>
       <c r="G566" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H566" s="15"/>
       <c r="I566" s="15"/>
@@ -24649,7 +24651,7 @@
         <v>761</v>
       </c>
       <c r="G567" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H567" s="15"/>
       <c r="I567" s="15"/>
@@ -24721,7 +24723,7 @@
         <v>209</v>
       </c>
       <c r="G569" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H569" s="15"/>
       <c r="I569" s="15"/>
@@ -24801,7 +24803,7 @@
         <v>301</v>
       </c>
       <c r="G571" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H571" s="15"/>
       <c r="I571" s="15"/>
@@ -24873,7 +24875,7 @@
         <v>767</v>
       </c>
       <c r="G573" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H573" s="15"/>
       <c r="I573" s="15"/>
@@ -24981,7 +24983,7 @@
         <v>772</v>
       </c>
       <c r="G576" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H576" s="15"/>
       <c r="I576" s="15"/>
@@ -25053,7 +25055,7 @@
         <v>775</v>
       </c>
       <c r="G578" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H578" s="15"/>
       <c r="I578" s="15"/>
@@ -25088,7 +25090,9 @@
       <c r="F579" s="12" t="s">
         <v>776</v>
       </c>
-      <c r="G579" s="16"/>
+      <c r="G579" s="6" t="s">
+        <v>60</v>
+      </c>
       <c r="H579" s="15"/>
       <c r="I579" s="15"/>
       <c r="J579" s="15"/>
@@ -25123,7 +25127,7 @@
         <v>777</v>
       </c>
       <c r="G580" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H580" s="15"/>
       <c r="I580" s="15"/>
@@ -25195,7 +25199,7 @@
         <v>209</v>
       </c>
       <c r="G582" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H582" s="15"/>
       <c r="I582" s="15"/>
@@ -25275,7 +25279,7 @@
         <v>301</v>
       </c>
       <c r="G584" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H584" s="15"/>
       <c r="I584" s="15"/>
@@ -25347,7 +25351,7 @@
         <v>783</v>
       </c>
       <c r="G586" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H586" s="15"/>
       <c r="I586" s="15"/>
@@ -25419,7 +25423,7 @@
         <v>612</v>
       </c>
       <c r="G588" s="13" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H588" s="15"/>
       <c r="I588" s="15"/>
@@ -25527,7 +25531,7 @@
         <v>247</v>
       </c>
       <c r="G591" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H591" s="15"/>
       <c r="I591" s="15"/>
@@ -25599,7 +25603,7 @@
         <v>791</v>
       </c>
       <c r="G593" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H593" s="15"/>
       <c r="I593" s="15"/>
@@ -25635,7 +25639,7 @@
         <v>792</v>
       </c>
       <c r="G594" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H594" s="15"/>
       <c r="I594" s="15"/>
@@ -25671,7 +25675,7 @@
         <v>209</v>
       </c>
       <c r="G595" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H595" s="15"/>
       <c r="I595" s="15"/>
@@ -25751,7 +25755,7 @@
         <v>301</v>
       </c>
       <c r="G597" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H597" s="15"/>
       <c r="I597" s="15"/>
@@ -25823,7 +25827,7 @@
         <v>796</v>
       </c>
       <c r="G599" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H599" s="15"/>
       <c r="I599" s="15"/>
@@ -25895,7 +25899,7 @@
         <v>612</v>
       </c>
       <c r="G601" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H601" s="15"/>
       <c r="I601" s="15"/>
@@ -26003,7 +26007,7 @@
         <v>55</v>
       </c>
       <c r="G604" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H604" s="15"/>
       <c r="I604" s="15"/>
@@ -26075,7 +26079,7 @@
         <v>791</v>
       </c>
       <c r="G606" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H606" s="15"/>
       <c r="I606" s="15"/>
@@ -26111,7 +26115,7 @@
         <v>792</v>
       </c>
       <c r="G607" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H607" s="15"/>
       <c r="I607" s="15"/>
@@ -26147,7 +26151,7 @@
         <v>209</v>
       </c>
       <c r="G608" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H608" s="15"/>
       <c r="I608" s="15"/>
@@ -26227,7 +26231,7 @@
         <v>301</v>
       </c>
       <c r="G610" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H610" s="15"/>
       <c r="I610" s="15"/>
@@ -26299,7 +26303,7 @@
         <v>808</v>
       </c>
       <c r="G612" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H612" s="15"/>
       <c r="I612" s="15"/>
@@ -26335,7 +26339,7 @@
         <v>809</v>
       </c>
       <c r="G613" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H613" s="15"/>
       <c r="I613" s="15"/>
@@ -26371,7 +26375,7 @@
         <v>474</v>
       </c>
       <c r="G614" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H614" s="15"/>
       <c r="I614" s="15"/>
@@ -26479,7 +26483,7 @@
         <v>814</v>
       </c>
       <c r="G617" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H617" s="15"/>
       <c r="I617" s="15"/>
@@ -26515,7 +26519,7 @@
         <v>815</v>
       </c>
       <c r="G618" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H618" s="15"/>
       <c r="I618" s="15"/>
@@ -26551,7 +26555,7 @@
         <v>745</v>
       </c>
       <c r="G619" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H619" s="15"/>
       <c r="I619" s="15"/>
@@ -26623,7 +26627,7 @@
         <v>621</v>
       </c>
       <c r="G621" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H621" s="15"/>
       <c r="I621" s="15"/>
@@ -26703,7 +26707,7 @@
         <v>301</v>
       </c>
       <c r="G623" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H623" s="15"/>
       <c r="I623" s="15"/>
@@ -26775,7 +26779,7 @@
         <v>609</v>
       </c>
       <c r="G625" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H625" s="15"/>
       <c r="I625" s="15"/>
@@ -26847,7 +26851,7 @@
         <v>823</v>
       </c>
       <c r="G627" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H627" s="15"/>
       <c r="I627" s="15"/>
@@ -26955,7 +26959,7 @@
         <v>55</v>
       </c>
       <c r="G630" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H630" s="15"/>
       <c r="I630" s="15"/>
@@ -27027,7 +27031,7 @@
         <v>830</v>
       </c>
       <c r="G632" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H632" s="15"/>
       <c r="I632" s="15"/>
@@ -27099,7 +27103,7 @@
         <v>833</v>
       </c>
       <c r="G634" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H634" s="15"/>
       <c r="I634" s="15"/>
@@ -27179,7 +27183,7 @@
         <v>301</v>
       </c>
       <c r="G636" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H636" s="15"/>
       <c r="I636" s="15"/>
@@ -27251,7 +27255,7 @@
         <v>838</v>
       </c>
       <c r="G638" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H638" s="15"/>
       <c r="I638" s="15"/>
@@ -27323,7 +27327,7 @@
         <v>612</v>
       </c>
       <c r="G640" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H640" s="15"/>
       <c r="I640" s="15"/>
@@ -27431,7 +27435,7 @@
         <v>55</v>
       </c>
       <c r="G643" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H643" s="15"/>
       <c r="I643" s="15"/>
@@ -27503,7 +27507,7 @@
         <v>791</v>
       </c>
       <c r="G645" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H645" s="15"/>
       <c r="I645" s="15"/>
@@ -27575,7 +27579,7 @@
         <v>209</v>
       </c>
       <c r="G647" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H647" s="15"/>
       <c r="I647" s="15"/>
@@ -27655,7 +27659,7 @@
         <v>850</v>
       </c>
       <c r="G649" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H649" s="15"/>
       <c r="I649" s="15"/>
@@ -27727,7 +27731,7 @@
         <v>853</v>
       </c>
       <c r="G651" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H651" s="15"/>
       <c r="I651" s="15"/>
@@ -27799,7 +27803,7 @@
         <v>856</v>
       </c>
       <c r="G653" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H653" s="15"/>
       <c r="I653" s="15"/>
@@ -27907,7 +27911,7 @@
         <v>861</v>
       </c>
       <c r="G656" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H656" s="15"/>
       <c r="I656" s="15"/>
@@ -27951,7 +27955,7 @@
         <v>863</v>
       </c>
       <c r="G657" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H657" s="15"/>
       <c r="I657" s="15"/>
@@ -28023,7 +28027,7 @@
         <v>866</v>
       </c>
       <c r="G659" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H659" s="15"/>
       <c r="I659" s="15"/>
@@ -28095,7 +28099,7 @@
         <v>869</v>
       </c>
       <c r="G661" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H661" s="15"/>
       <c r="I661" s="15"/>
@@ -28167,7 +28171,7 @@
         <v>872</v>
       </c>
       <c r="G663" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H663" s="15"/>
       <c r="I663" s="15"/>
@@ -28203,7 +28207,7 @@
         <v>873</v>
       </c>
       <c r="G664" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H664" s="15"/>
       <c r="I664" s="15"/>
@@ -28239,7 +28243,7 @@
         <v>874</v>
       </c>
       <c r="G665" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H665" s="15"/>
       <c r="I665" s="15"/>
@@ -28275,7 +28279,7 @@
         <v>875</v>
       </c>
       <c r="G666" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H666" s="15"/>
       <c r="I666" s="15"/>
@@ -28311,7 +28315,7 @@
         <v>876</v>
       </c>
       <c r="G667" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H667" s="15"/>
       <c r="I667" s="15"/>
@@ -28347,7 +28351,7 @@
         <v>878</v>
       </c>
       <c r="G668" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H668" s="15"/>
       <c r="I668" s="15"/>
@@ -28427,7 +28431,7 @@
         <v>882</v>
       </c>
       <c r="G670" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H670" s="15"/>
       <c r="I670" s="15"/>
@@ -28499,7 +28503,7 @@
         <v>885</v>
       </c>
       <c r="G672" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H672" s="15"/>
       <c r="I672" s="15"/>
@@ -28571,7 +28575,7 @@
         <v>888</v>
       </c>
       <c r="G674" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H674" s="15"/>
       <c r="I674" s="15"/>
@@ -28643,7 +28647,7 @@
         <v>891</v>
       </c>
       <c r="G676" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H676" s="15"/>
       <c r="I676" s="15"/>
@@ -28751,7 +28755,7 @@
         <v>861</v>
       </c>
       <c r="G679" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H679" s="15"/>
       <c r="I679" s="15"/>
@@ -28795,7 +28799,7 @@
         <v>897</v>
       </c>
       <c r="G680" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H680" s="15"/>
       <c r="I680" s="15"/>
@@ -28867,7 +28871,7 @@
         <v>900</v>
       </c>
       <c r="G682" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H682" s="15"/>
       <c r="I682" s="15"/>
@@ -28939,7 +28943,7 @@
         <v>903</v>
       </c>
       <c r="G684" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H684" s="15"/>
       <c r="I684" s="15"/>
@@ -29011,7 +29015,7 @@
         <v>906</v>
       </c>
       <c r="G686" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H686" s="15"/>
       <c r="I686" s="15"/>
@@ -29047,7 +29051,7 @@
         <v>907</v>
       </c>
       <c r="G687" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H687" s="15"/>
       <c r="I687" s="15"/>
@@ -29119,7 +29123,7 @@
         <v>861</v>
       </c>
       <c r="G689" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H689" s="15"/>
       <c r="I689" s="15"/>
@@ -29163,7 +29167,7 @@
         <v>301</v>
       </c>
       <c r="G690" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H690" s="15"/>
       <c r="I690" s="15"/>
@@ -29235,7 +29239,7 @@
         <v>421</v>
       </c>
       <c r="G692" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H692" s="15"/>
       <c r="I692" s="15"/>
@@ -29343,7 +29347,7 @@
         <v>247</v>
       </c>
       <c r="G695" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H695" s="15"/>
       <c r="I695" s="15"/>
@@ -29415,7 +29419,7 @@
         <v>919</v>
       </c>
       <c r="G697" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H697" s="15"/>
       <c r="I697" s="15"/>
@@ -29451,7 +29455,7 @@
         <v>920</v>
       </c>
       <c r="G698" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H698" s="15"/>
       <c r="I698" s="15"/>
@@ -29487,7 +29491,7 @@
         <v>209</v>
       </c>
       <c r="G699" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H699" s="15"/>
       <c r="I699" s="15"/>
@@ -29567,7 +29571,7 @@
         <v>301</v>
       </c>
       <c r="G701" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H701" s="15"/>
       <c r="I701" s="15"/>
@@ -29639,7 +29643,7 @@
         <v>421</v>
       </c>
       <c r="G703" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H703" s="15"/>
       <c r="I703" s="15"/>
@@ -29747,7 +29751,7 @@
         <v>55</v>
       </c>
       <c r="G706" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H706" s="15"/>
       <c r="I706" s="15"/>
@@ -29819,7 +29823,7 @@
         <v>930</v>
       </c>
       <c r="G708" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H708" s="15"/>
       <c r="I708" s="15"/>
@@ -29891,7 +29895,7 @@
         <v>933</v>
       </c>
       <c r="G710" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H710" s="15"/>
       <c r="I710" s="15"/>
@@ -29927,7 +29931,7 @@
         <v>934</v>
       </c>
       <c r="G711" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H711" s="15"/>
       <c r="I711" s="15"/>
@@ -29963,7 +29967,7 @@
         <v>209</v>
       </c>
       <c r="G712" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H712" s="15"/>
       <c r="I712" s="15"/>
